--- a/results/I2_N7_T100_C210_0_res.xlsx
+++ b/results/I2_N7_T100_C210_0_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.717999935150146</v>
+        <v>5.176999807357788</v>
       </c>
     </row>
     <row r="5">
